--- a/collect_users/results/enriched_users_new.xlsx
+++ b/collect_users/results/enriched_users_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quach\OneDrive\Documents\GitHub\SWORDS-UU\collect_users\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221E6F54-DAE9-4A41-BC32-649717339871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF9300A-EB42-4D85-B169-34EFA0E6ED60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27775,7 +27775,11 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E548F2A-E225-4ACD-A6CD-2CD70889FA87}" name="Table1" displayName="Table1" ref="A1:AN491" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:AN491" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AN491" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="37">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="40">
     <tableColumn id="1" xr3:uid="{3FB0A4D2-6744-4BF2-9BC2-D3DB3CDDCAD3}" name="github_user_id"/>
     <tableColumn id="2" xr3:uid="{4F7F4FDC-418A-421A-BC73-1287C31F148E}" name="source"/>
@@ -28110,7 +28114,7 @@
   <dimension ref="A1:AN491"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AJ7" sqref="AJ7"/>
+      <selection activeCell="AL58" sqref="AL58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28252,7 +28256,7 @@
         <v>9121</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -28338,7 +28342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -28445,7 +28449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -28552,7 +28556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -28653,7 +28657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -28766,7 +28770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>137</v>
       </c>
@@ -28876,7 +28880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>158</v>
       </c>
@@ -28986,7 +28990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>180</v>
       </c>
@@ -29087,7 +29091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>203</v>
       </c>
@@ -29104,7 +29108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>204</v>
       </c>
@@ -29214,7 +29218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>223</v>
       </c>
@@ -29324,7 +29328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>245</v>
       </c>
@@ -29422,7 +29426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>262</v>
       </c>
@@ -29532,7 +29536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>281</v>
       </c>
@@ -29642,7 +29646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>301</v>
       </c>
@@ -29758,7 +29762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>323</v>
       </c>
@@ -29853,7 +29857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>339</v>
       </c>
@@ -29954,7 +29958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>356</v>
       </c>
@@ -30061,7 +30065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>376</v>
       </c>
@@ -30159,7 +30163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>393</v>
       </c>
@@ -30260,7 +30264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>412</v>
       </c>
@@ -30352,7 +30356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>430</v>
       </c>
@@ -30456,7 +30460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>447</v>
       </c>
@@ -30554,7 +30558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>464</v>
       </c>
@@ -30655,7 +30659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>482</v>
       </c>
@@ -30753,7 +30757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>499</v>
       </c>
@@ -30860,7 +30864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>517</v>
       </c>
@@ -30961,7 +30965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>535</v>
       </c>
@@ -31065,7 +31069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>554</v>
       </c>
@@ -31169,7 +31173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>572</v>
       </c>
@@ -31270,7 +31274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>590</v>
       </c>
@@ -31365,7 +31369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>606</v>
       </c>
@@ -31478,7 +31482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>627</v>
       </c>
@@ -31582,7 +31586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>645</v>
       </c>
@@ -31677,7 +31681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>665</v>
       </c>
@@ -31784,7 +31788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>684</v>
       </c>
@@ -31891,7 +31895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>704</v>
       </c>
@@ -32004,7 +32008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>725</v>
       </c>
@@ -32108,7 +32112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>743</v>
       </c>
@@ -32221,7 +32225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>763</v>
       </c>
@@ -32325,7 +32329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>782</v>
       </c>
@@ -32429,7 +32433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>801</v>
       </c>
@@ -32539,7 +32543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>822</v>
       </c>
@@ -32649,7 +32653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>842</v>
       </c>
@@ -32762,7 +32766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>863</v>
       </c>
@@ -32866,7 +32870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>881</v>
       </c>
@@ -32970,7 +32974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>899</v>
       </c>
@@ -33077,7 +33081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>919</v>
       </c>
@@ -33178,7 +33182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>936</v>
       </c>
@@ -33288,7 +33292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>956</v>
       </c>
@@ -33383,7 +33387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>972</v>
       </c>
@@ -33490,7 +33494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>990</v>
       </c>
@@ -33588,7 +33592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1007</v>
       </c>
@@ -33695,7 +33699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1025</v>
       </c>
@@ -33805,7 +33809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1046</v>
       </c>
@@ -33900,7 +33904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1062</v>
       </c>
@@ -34093,7 +34097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1098</v>
       </c>
@@ -34200,7 +34204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1117</v>
       </c>
@@ -34295,7 +34299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1133</v>
       </c>
@@ -34402,7 +34406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1153</v>
       </c>
@@ -34512,7 +34516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1174</v>
       </c>
@@ -34607,7 +34611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1190</v>
       </c>
@@ -34714,7 +34718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1210</v>
       </c>
@@ -34821,7 +34825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1230</v>
       </c>
@@ -34925,7 +34929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1248</v>
       </c>
@@ -35032,7 +35036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1268</v>
       </c>
@@ -35142,7 +35146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1289</v>
       </c>
@@ -35249,7 +35253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1308</v>
       </c>
@@ -35362,7 +35366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1329</v>
       </c>
@@ -35472,7 +35476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1348</v>
       </c>
@@ -35570,7 +35574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1365</v>
       </c>
@@ -35677,7 +35681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1384</v>
       </c>
@@ -35778,7 +35782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1401</v>
       </c>
@@ -35885,7 +35889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1420</v>
       </c>
@@ -35974,7 +35978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1437</v>
       </c>
@@ -36075,7 +36079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1454</v>
       </c>
@@ -36170,7 +36174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1473</v>
       </c>
@@ -36265,7 +36269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1489</v>
       </c>
@@ -36375,7 +36379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1509</v>
       </c>
@@ -36479,7 +36483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1526</v>
       </c>
@@ -36580,7 +36584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1544</v>
       </c>
@@ -36681,7 +36685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1562</v>
       </c>
@@ -36788,7 +36792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1581</v>
       </c>
@@ -36892,7 +36896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1600</v>
       </c>
@@ -36993,7 +36997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1618</v>
       </c>
@@ -37094,7 +37098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1635</v>
       </c>
@@ -37201,7 +37205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1654</v>
       </c>
@@ -37305,7 +37309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1672</v>
       </c>
@@ -37412,7 +37416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1691</v>
       </c>
@@ -37516,7 +37520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1710</v>
       </c>
@@ -37623,7 +37627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1729</v>
       </c>
@@ -37715,7 +37719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1747</v>
       </c>
@@ -37822,7 +37826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1767</v>
       </c>
@@ -37929,7 +37933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1787</v>
       </c>
@@ -38033,7 +38037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1805</v>
       </c>
@@ -38143,7 +38147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1825</v>
       </c>
@@ -38247,7 +38251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1843</v>
       </c>
@@ -38357,7 +38361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1863</v>
       </c>
@@ -38449,7 +38453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1881</v>
       </c>
@@ -38559,7 +38563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1901</v>
       </c>
@@ -38663,7 +38667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1920</v>
       </c>
@@ -38770,7 +38774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1940</v>
       </c>
@@ -38871,7 +38875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1958</v>
       </c>
@@ -38975,7 +38979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1976</v>
       </c>
@@ -39088,7 +39092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1996</v>
       </c>
@@ -39198,7 +39202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>2017</v>
       </c>
@@ -39296,7 +39300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>2033</v>
       </c>
@@ -39397,7 +39401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>2051</v>
       </c>
@@ -39501,7 +39505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>2070</v>
       </c>
@@ -39605,7 +39609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>2088</v>
       </c>
@@ -39715,7 +39719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>2108</v>
       </c>
@@ -39819,7 +39823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>2126</v>
       </c>
@@ -39920,7 +39924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>2147</v>
       </c>
@@ -40024,7 +40028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>2166</v>
       </c>
@@ -40137,7 +40141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>2186</v>
       </c>
@@ -40238,7 +40242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>2204</v>
       </c>
@@ -40345,7 +40349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>2223</v>
       </c>
@@ -40455,7 +40459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>2243</v>
       </c>
@@ -40547,7 +40551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2262</v>
       </c>
@@ -40660,7 +40664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2283</v>
       </c>
@@ -40755,7 +40759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>2299</v>
       </c>
@@ -40865,7 +40869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>2320</v>
       </c>
@@ -40978,7 +40982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>2342</v>
       </c>
@@ -41085,7 +41089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>2361</v>
       </c>
@@ -41189,7 +41193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>2379</v>
       </c>
@@ -41275,7 +41279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2396</v>
       </c>
@@ -41379,7 +41383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>2415</v>
       </c>
@@ -41474,7 +41478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>2431</v>
       </c>
@@ -41587,7 +41591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>2451</v>
       </c>
@@ -41697,7 +41701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>2471</v>
       </c>
@@ -41789,7 +41793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>2490</v>
       </c>
@@ -41896,7 +41900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>2508</v>
       </c>
@@ -42006,7 +42010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>2529</v>
       </c>
@@ -42110,7 +42114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>2548</v>
       </c>
@@ -42220,7 +42224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>2568</v>
       </c>
@@ -42315,7 +42319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2584</v>
       </c>
@@ -42425,7 +42429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>2603</v>
       </c>
@@ -42529,7 +42533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>2621</v>
       </c>
@@ -42633,7 +42637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2639</v>
       </c>
@@ -42737,7 +42741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2657</v>
       </c>
@@ -42832,7 +42836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>2673</v>
       </c>
@@ -42933,7 +42937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>2690</v>
       </c>
@@ -43040,7 +43044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>2709</v>
       </c>
@@ -43138,7 +43142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2728</v>
       </c>
@@ -43248,7 +43252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>2747</v>
       </c>
@@ -43355,7 +43359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>2765</v>
       </c>
@@ -43456,7 +43460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>2783</v>
       </c>
@@ -43566,7 +43570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>2802</v>
       </c>
@@ -43679,7 +43683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>2824</v>
       </c>
@@ -43789,7 +43793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>2845</v>
       </c>
@@ -43890,7 +43894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>2864</v>
       </c>
@@ -43997,7 +44001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>2882</v>
       </c>
@@ -44107,7 +44111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>2902</v>
       </c>
@@ -44202,7 +44206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>2921</v>
       </c>
@@ -44309,7 +44313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>2940</v>
       </c>
@@ -44413,7 +44417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>2958</v>
       </c>
@@ -44523,7 +44527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>2978</v>
       </c>
@@ -44627,7 +44631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>2996</v>
       </c>
@@ -44725,7 +44729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>3013</v>
       </c>
@@ -44835,7 +44839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>3033</v>
       </c>
@@ -44939,7 +44943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>3051</v>
       </c>
@@ -45052,7 +45056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>3072</v>
       </c>
@@ -45147,7 +45151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>3088</v>
       </c>
@@ -45245,7 +45249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>3105</v>
       </c>
@@ -45349,7 +45353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>3124</v>
       </c>
@@ -45453,7 +45457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>3142</v>
       </c>
@@ -45640,7 +45644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>3175</v>
       </c>
@@ -45741,7 +45745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>3192</v>
       </c>
@@ -45836,7 +45840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>3208</v>
       </c>
@@ -45943,7 +45947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>3226</v>
       </c>
@@ -46050,7 +46054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>3246</v>
       </c>
@@ -46142,7 +46146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>3264</v>
       </c>
@@ -46249,7 +46253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>3283</v>
       </c>
@@ -46353,7 +46357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>3301</v>
       </c>
@@ -46460,7 +46464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>3320</v>
       </c>
@@ -46555,7 +46559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>3336</v>
       </c>
@@ -46671,7 +46675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>3358</v>
       </c>
@@ -46781,7 +46785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>3379</v>
       </c>
@@ -46891,7 +46895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>3400</v>
       </c>
@@ -47001,7 +47005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>3421</v>
       </c>
@@ -47090,7 +47094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>3439</v>
       </c>
@@ -47191,7 +47195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>3457</v>
       </c>
@@ -47292,7 +47296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>3477</v>
       </c>
@@ -47390,7 +47394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>3493</v>
       </c>
@@ -47503,7 +47507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>3514</v>
       </c>
@@ -47589,7 +47593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>3530</v>
       </c>
@@ -47693,7 +47697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>3549</v>
       </c>
@@ -47791,7 +47795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>3566</v>
       </c>
@@ -47895,7 +47899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>3584</v>
       </c>
@@ -48002,7 +48006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>3604</v>
       </c>
@@ -48115,7 +48119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>3624</v>
       </c>
@@ -48210,7 +48214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>3640</v>
       </c>
@@ -48314,7 +48318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>3659</v>
       </c>
@@ -48418,7 +48422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>3676</v>
       </c>
@@ -48519,7 +48523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>3694</v>
       </c>
@@ -48614,7 +48618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>3710</v>
       </c>
@@ -48715,7 +48719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>3728</v>
       </c>
@@ -48822,7 +48826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>3747</v>
       </c>
@@ -48926,7 +48930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>3766</v>
       </c>
@@ -49024,7 +49028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>3783</v>
       </c>
@@ -49128,7 +49132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>3800</v>
       </c>
@@ -49232,7 +49236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>3819</v>
       </c>
@@ -49342,7 +49346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>3840</v>
       </c>
@@ -49455,7 +49459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>3859</v>
       </c>
@@ -49559,7 +49563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>3878</v>
       </c>
@@ -49654,7 +49658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>3894</v>
       </c>
@@ -49761,7 +49765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>3912</v>
       </c>
@@ -49853,7 +49857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>3928</v>
       </c>
@@ -49954,7 +49958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>3945</v>
       </c>
@@ -50055,7 +50059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>3963</v>
       </c>
@@ -50165,7 +50169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>3983</v>
       </c>
@@ -50269,7 +50273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>4002</v>
       </c>
@@ -50382,7 +50386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>4023</v>
       </c>
@@ -50492,7 +50496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>4043</v>
       </c>
@@ -50596,7 +50600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>4061</v>
       </c>
@@ -50697,7 +50701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>4079</v>
       </c>
@@ -50798,7 +50802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>4096</v>
       </c>
@@ -50899,7 +50903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>4114</v>
       </c>
@@ -51006,7 +51010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>4133</v>
       </c>
@@ -51107,7 +51111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>4151</v>
       </c>
@@ -51217,7 +51221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>4172</v>
       </c>
@@ -51324,7 +51328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>4191</v>
       </c>
@@ -51437,7 +51441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>4213</v>
       </c>
@@ -51547,7 +51551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>4232</v>
       </c>
@@ -51648,7 +51652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>4249</v>
       </c>
@@ -51743,7 +51747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>4267</v>
       </c>
@@ -51850,7 +51854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>4286</v>
       </c>
@@ -51960,7 +51964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>4305</v>
       </c>
@@ -52067,7 +52071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>4325</v>
       </c>
@@ -52156,7 +52160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>4342</v>
       </c>
@@ -52269,7 +52273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>4363</v>
       </c>
@@ -52355,7 +52359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>4379</v>
       </c>
@@ -52450,7 +52454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>4395</v>
       </c>
@@ -52560,7 +52564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>4415</v>
       </c>
@@ -52673,7 +52677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>4437</v>
       </c>
@@ -52768,7 +52772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>4453</v>
       </c>
@@ -52875,7 +52879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>4473</v>
       </c>
@@ -52979,7 +52983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>4490</v>
       </c>
@@ -53083,7 +53087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>4508</v>
       </c>
@@ -53181,7 +53185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>4525</v>
       </c>
@@ -53282,7 +53286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>4542</v>
       </c>
@@ -53386,7 +53390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>4564</v>
       </c>
@@ -53499,7 +53503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>4584</v>
       </c>
@@ -53606,7 +53610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>4604</v>
       </c>
@@ -53698,7 +53702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>4623</v>
       </c>
@@ -53787,7 +53791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>4641</v>
       </c>
@@ -53888,7 +53892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>4659</v>
       </c>
@@ -53995,7 +53999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>4678</v>
       </c>
@@ -54105,7 +54109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>4697</v>
       </c>
@@ -54200,7 +54204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>4713</v>
       </c>
@@ -54307,7 +54311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>4733</v>
       </c>
@@ -54417,7 +54421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>4753</v>
       </c>
@@ -54527,7 +54531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>4772</v>
       </c>
@@ -54637,7 +54641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>4792</v>
       </c>
@@ -54729,7 +54733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>4810</v>
       </c>
@@ -54830,7 +54834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>4828</v>
       </c>
@@ -54937,7 +54941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>4847</v>
       </c>
@@ -55050,7 +55054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>4868</v>
       </c>
@@ -55154,7 +55158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>4887</v>
       </c>
@@ -55264,7 +55268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>4907</v>
       </c>
@@ -55371,7 +55375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>4928</v>
       </c>
@@ -55475,7 +55479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>4946</v>
       </c>
@@ -55588,7 +55592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>4966</v>
       </c>
@@ -55683,7 +55687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>4986</v>
       </c>
@@ -55787,7 +55791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>5004</v>
       </c>
@@ -55903,7 +55907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>5026</v>
       </c>
@@ -56016,7 +56020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>5048</v>
       </c>
@@ -56129,7 +56133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>5069</v>
       </c>
@@ -56242,7 +56246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>5091</v>
       </c>
@@ -56346,7 +56350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>5110</v>
       </c>
@@ -56459,7 +56463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>5131</v>
       </c>
@@ -56563,7 +56567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>5149</v>
       </c>
@@ -56670,7 +56674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>5169</v>
       </c>
@@ -56765,7 +56769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>5185</v>
       </c>
@@ -56863,7 +56867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>5202</v>
       </c>
@@ -56967,7 +56971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>5220</v>
       </c>
@@ -57062,7 +57066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>5236</v>
       </c>
@@ -57166,7 +57170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>5254</v>
       </c>
@@ -57279,7 +57283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>5275</v>
       </c>
@@ -57383,7 +57387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>5293</v>
       </c>
@@ -57487,7 +57491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>5312</v>
       </c>
@@ -57600,7 +57604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>5334</v>
       </c>
@@ -57698,7 +57702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>5351</v>
       </c>
@@ -57799,7 +57803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>5369</v>
       </c>
@@ -57906,7 +57910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>5388</v>
       </c>
@@ -58007,7 +58011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>5406</v>
       </c>
@@ -58114,7 +58118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>5425</v>
       </c>
@@ -58224,7 +58228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>5445</v>
       </c>
@@ -58337,7 +58341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>5467</v>
       </c>
@@ -58453,7 +58457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>5488</v>
       </c>
@@ -58548,7 +58552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>5504</v>
       </c>
@@ -58652,7 +58656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>5523</v>
       </c>
@@ -58765,7 +58769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>5545</v>
       </c>
@@ -58860,7 +58864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>5563</v>
       </c>
@@ -58964,7 +58968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>5581</v>
       </c>
@@ -59059,7 +59063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>5597</v>
       </c>
@@ -59163,7 +59167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>5615</v>
       </c>
@@ -59276,7 +59280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>5635</v>
       </c>
@@ -59383,7 +59387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>5653</v>
       </c>
@@ -59490,7 +59494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>5673</v>
       </c>
@@ -59594,7 +59598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>5691</v>
       </c>
@@ -59695,7 +59699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>5709</v>
       </c>
@@ -59802,7 +59806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>5727</v>
       </c>
@@ -59897,7 +59901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>5743</v>
       </c>
@@ -60001,7 +60005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>5762</v>
       </c>
@@ -60105,7 +60109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>5780</v>
       </c>
@@ -60212,7 +60216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>5799</v>
       </c>
@@ -60307,7 +60311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>5815</v>
       </c>
@@ -60408,7 +60412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>5833</v>
       </c>
@@ -60509,7 +60513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>5850</v>
       </c>
@@ -60613,7 +60617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>5869</v>
       </c>
@@ -60726,7 +60730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>5890</v>
       </c>
@@ -60833,7 +60837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>5909</v>
       </c>
@@ -60934,7 +60938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>5926</v>
       </c>
@@ -60963,7 +60967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>5927</v>
       </c>
@@ -61058,7 +61062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>5943</v>
       </c>
@@ -61162,7 +61166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>5961</v>
       </c>
@@ -61266,7 +61270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>5978</v>
       </c>
@@ -61376,7 +61380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>5997</v>
       </c>
@@ -61483,7 +61487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>6017</v>
       </c>
@@ -61593,7 +61597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>6036</v>
       </c>
@@ -61697,7 +61701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>6054</v>
       </c>
@@ -61792,7 +61796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>6070</v>
       </c>
@@ -61899,7 +61903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>6089</v>
       </c>
@@ -62006,7 +62010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>6108</v>
       </c>
@@ -62116,7 +62120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>6127</v>
       </c>
@@ -62223,7 +62227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>6146</v>
       </c>
@@ -62327,7 +62331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>6164</v>
       </c>
@@ -62440,7 +62444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>6186</v>
       </c>
@@ -62547,7 +62551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>6205</v>
       </c>
@@ -62648,7 +62652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>6223</v>
       </c>
@@ -62752,7 +62756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>6242</v>
       </c>
@@ -62859,7 +62863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>6261</v>
       </c>
@@ -62948,7 +62952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>6279</v>
       </c>
@@ -63037,7 +63041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>6297</v>
       </c>
@@ -63144,7 +63148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>6317</v>
       </c>
@@ -63254,7 +63258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>6335</v>
       </c>
@@ -63349,7 +63353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>6351</v>
       </c>
@@ -63438,7 +63442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>6369</v>
       </c>
@@ -63536,7 +63540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>6386</v>
       </c>
@@ -63643,7 +63647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>6405</v>
       </c>
@@ -63750,7 +63754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>6424</v>
       </c>
@@ -63854,7 +63858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>6442</v>
       </c>
@@ -63967,7 +63971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>6464</v>
       </c>
@@ -64062,7 +64066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>6480</v>
       </c>
@@ -64163,7 +64167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>6498</v>
       </c>
@@ -64264,7 +64268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>6516</v>
       </c>
@@ -64365,7 +64369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>6534</v>
       </c>
@@ -64481,7 +64485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>6557</v>
       </c>
@@ -64576,7 +64580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>6573</v>
       </c>
@@ -64677,7 +64681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>6592</v>
       </c>
@@ -64775,7 +64779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>6609</v>
       </c>
@@ -64885,7 +64889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>6629</v>
       </c>
@@ -64986,7 +64990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>6646</v>
       </c>
@@ -65084,7 +65088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>6663</v>
       </c>
@@ -65185,7 +65189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>6681</v>
       </c>
@@ -65286,7 +65290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>6699</v>
       </c>
@@ -65396,7 +65400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>6718</v>
       </c>
@@ -65500,7 +65504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>6736</v>
       </c>
@@ -65607,7 +65611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>6755</v>
       </c>
@@ -65702,7 +65706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>6771</v>
       </c>
@@ -65797,7 +65801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>6787</v>
       </c>
@@ -65898,7 +65902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>6805</v>
       </c>
@@ -65996,7 +66000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>6826</v>
       </c>
@@ -66106,7 +66110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>6846</v>
       </c>
@@ -66213,7 +66217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>6865</v>
       </c>
@@ -66314,7 +66318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>6883</v>
       </c>
@@ -66412,7 +66416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>6900</v>
       </c>
@@ -66504,7 +66508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>6916</v>
       </c>
@@ -66614,7 +66618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>6936</v>
       </c>
@@ -66721,7 +66725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>6955</v>
       </c>
@@ -66831,7 +66835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>6975</v>
       </c>
@@ -66935,7 +66939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>6994</v>
       </c>
@@ -67045,7 +67049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>7013</v>
       </c>
@@ -67149,7 +67153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>7031</v>
       </c>
@@ -67259,7 +67263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>7052</v>
       </c>
@@ -67369,7 +67373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>7072</v>
       </c>
@@ -67476,7 +67480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>7091</v>
       </c>
@@ -67574,7 +67578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>7107</v>
       </c>
@@ -67681,7 +67685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>7126</v>
       </c>
@@ -67788,7 +67792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>7146</v>
       </c>
@@ -67889,7 +67893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>7164</v>
       </c>
@@ -67990,7 +67994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>7182</v>
       </c>
@@ -68103,7 +68107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>7202</v>
       </c>
@@ -68198,7 +68202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>7218</v>
       </c>
@@ -68308,7 +68312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>7238</v>
       </c>
@@ -68403,7 +68407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>7254</v>
       </c>
@@ -68513,7 +68517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>7273</v>
       </c>
@@ -68617,7 +68621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>7292</v>
       </c>
@@ -68715,7 +68719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>7313</v>
       </c>
@@ -68819,7 +68823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>7332</v>
       </c>
@@ -68923,7 +68927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>7350</v>
       </c>
@@ -69027,7 +69031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>7368</v>
       </c>
@@ -69134,7 +69138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>7388</v>
       </c>
@@ -69235,7 +69239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>7405</v>
       </c>
@@ -69333,7 +69337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>7422</v>
       </c>
@@ -69443,7 +69447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>7442</v>
       </c>
@@ -69550,7 +69554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>7463</v>
       </c>
@@ -69642,7 +69646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>7481</v>
       </c>
@@ -69749,7 +69753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>7500</v>
       </c>
@@ -69844,7 +69848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>7516</v>
       </c>
@@ -69936,7 +69940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>7535</v>
       </c>
@@ -70043,7 +70047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>7555</v>
       </c>
@@ -70150,7 +70154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>7575</v>
       </c>
@@ -70266,7 +70270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>7596</v>
       </c>
@@ -70355,7 +70359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>7614</v>
       </c>
@@ -70468,7 +70472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>7635</v>
       </c>
@@ -70554,7 +70558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>9138</v>
       </c>
@@ -70583,7 +70587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>7651</v>
       </c>
@@ -70690,7 +70694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>7670</v>
       </c>
@@ -70794,7 +70798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>7688</v>
       </c>
@@ -70898,7 +70902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>7705</v>
       </c>
@@ -71005,7 +71009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>7724</v>
       </c>
@@ -71103,7 +71107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>7741</v>
       </c>
@@ -71207,7 +71211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>7760</v>
       </c>
@@ -71296,7 +71300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>7778</v>
       </c>
@@ -71403,7 +71407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>7798</v>
       </c>
@@ -71608,7 +71612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>7835</v>
       </c>
@@ -71697,7 +71701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>7853</v>
       </c>
@@ -71801,7 +71805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>7872</v>
       </c>
@@ -71908,7 +71912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>7892</v>
       </c>
@@ -72006,7 +72010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>7909</v>
       </c>
@@ -72116,7 +72120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>7930</v>
       </c>
@@ -72208,7 +72212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>7947</v>
       </c>
@@ -72309,7 +72313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>7964</v>
       </c>
@@ -72419,7 +72423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>7984</v>
       </c>
@@ -72520,7 +72524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>8002</v>
       </c>
@@ -72615,7 +72619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>8018</v>
       </c>
@@ -72710,7 +72714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>8034</v>
       </c>
@@ -72808,7 +72812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>8051</v>
       </c>
@@ -72915,7 +72919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>8070</v>
       </c>
@@ -73031,7 +73035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>8090</v>
       </c>
@@ -73144,7 +73148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>8110</v>
       </c>
@@ -73248,7 +73252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>8127</v>
       </c>
@@ -73349,7 +73353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>8145</v>
       </c>
@@ -73459,7 +73463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>8165</v>
       </c>
@@ -73569,7 +73573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>8185</v>
       </c>
@@ -73682,7 +73686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>8206</v>
       </c>
@@ -73777,7 +73781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>8222</v>
       </c>
@@ -73884,7 +73888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>8241</v>
       </c>
@@ -73979,7 +73983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>8257</v>
       </c>
@@ -74080,7 +74084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>8275</v>
       </c>
@@ -74166,7 +74170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>8292</v>
       </c>
@@ -74273,7 +74277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>8311</v>
       </c>
@@ -74380,7 +74384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>8331</v>
       </c>
@@ -74481,7 +74485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>8349</v>
       </c>
@@ -74591,7 +74595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>8368</v>
       </c>
@@ -74701,7 +74705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>8388</v>
       </c>
@@ -74799,7 +74803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>8405</v>
       </c>
@@ -74906,7 +74910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>8424</v>
       </c>
@@ -75010,7 +75014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>8442</v>
       </c>
@@ -75120,7 +75124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>8461</v>
       </c>
@@ -75230,7 +75234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>8481</v>
       </c>
@@ -75334,7 +75338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>8499</v>
       </c>
@@ -75444,7 +75448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>8519</v>
       </c>
@@ -75554,7 +75558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>8539</v>
       </c>
@@ -75741,7 +75745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>8573</v>
       </c>
@@ -75836,7 +75840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>8589</v>
       </c>
@@ -75937,7 +75941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>8607</v>
       </c>
@@ -76044,7 +76048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>8627</v>
       </c>
@@ -76139,7 +76143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>8643</v>
       </c>
@@ -76240,7 +76244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>8661</v>
       </c>
@@ -76344,7 +76348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>8680</v>
       </c>
@@ -76445,7 +76449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>8698</v>
       </c>
@@ -76549,7 +76553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>8717</v>
       </c>
@@ -76662,7 +76666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>8738</v>
       </c>
@@ -76766,7 +76770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>8756</v>
       </c>
@@ -76870,7 +76874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>8773</v>
       </c>
@@ -76980,7 +76984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>8792</v>
       </c>
@@ -77087,7 +77091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>8812</v>
       </c>
@@ -77194,7 +77198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>8830</v>
       </c>
@@ -77289,7 +77293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>8846</v>
       </c>
@@ -77393,7 +77397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>8864</v>
       </c>
@@ -77500,7 +77504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>8882</v>
       </c>
@@ -77610,7 +77614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>8902</v>
       </c>
@@ -77711,7 +77715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>8920</v>
       </c>
@@ -77821,7 +77825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>8939</v>
       </c>
@@ -77934,7 +77938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>8959</v>
       </c>
@@ -78038,7 +78042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>8978</v>
       </c>
@@ -78127,7 +78131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>8996</v>
       </c>
@@ -78228,7 +78232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>9014</v>
       </c>
@@ -78317,7 +78321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>9031</v>
       </c>
@@ -78427,7 +78431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>9052</v>
       </c>
@@ -78531,7 +78535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>9070</v>
       </c>
@@ -78641,7 +78645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>9089</v>
       </c>
